--- a/config.xlsx
+++ b/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sradak/Downloads/variable_extract/blastdb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sradak/Downloads/variable_extract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052B1EF8-9151-994B-8C53-BD1E754D2A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF6CCDB-50E8-2543-A123-A453D5F5ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{D0C1844A-0301-C241-837A-D904870A691A}"/>
+    <workbookView xWindow="3560" yWindow="1300" windowWidth="30240" windowHeight="17040" xr2:uid="{D0C1844A-0301-C241-837A-D904870A691A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>Length</t>
   </si>
@@ -105,6 +105,42 @@
   </si>
   <si>
     <t>Start Position</t>
+  </si>
+  <si>
+    <t>GTTGTCGTTCCATCT</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>CAAGAACAGCGTTAT</t>
+  </si>
+  <si>
+    <t>Variable/Constant</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>cccc</t>
+  </si>
+  <si>
+    <t>dddd</t>
+  </si>
+  <si>
+    <t>eeee</t>
   </si>
 </sst>
 </file>
@@ -483,138 +519,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB6C40-4C96-8C45-B281-25BF0FCB6B5C}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>202</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>231</v>
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
       </c>
       <c r="D3">
+        <v>202</v>
+      </c>
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>231</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
         <v>242</v>
       </c>
-      <c r="D4">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I7" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>246</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sradak/Downloads/variable_extract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF6CCDB-50E8-2543-A123-A453D5F5ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413929A5-AACD-9846-9834-92DD267172B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="1300" windowWidth="30240" windowHeight="17040" xr2:uid="{D0C1844A-0301-C241-837A-D904870A691A}"/>
+    <workbookView xWindow="1080" yWindow="2720" windowWidth="30240" windowHeight="17040" xr2:uid="{D0C1844A-0301-C241-837A-D904870A691A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Length</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>eeee</t>
+  </si>
+  <si>
+    <t>B2M</t>
+  </si>
+  <si>
+    <t>ffff</t>
   </si>
 </sst>
 </file>
@@ -519,14 +525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB6C40-4C96-8C45-B281-25BF0FCB6B5C}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="20.1640625" customWidth="1"/>
     <col min="8" max="8" width="21.83203125" customWidth="1"/>
@@ -677,31 +684,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>242</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -709,13 +698,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>242</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -723,31 +730,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>246</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -755,13 +744,45 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>246</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>34</v>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sradak/Downloads/variable_extract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413929A5-AACD-9846-9834-92DD267172B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF62F3B0-49A5-E047-93AE-172840AD1629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="2720" windowWidth="30240" windowHeight="17040" xr2:uid="{D0C1844A-0301-C241-837A-D904870A691A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Length</t>
   </si>
@@ -65,21 +65,12 @@
     <t>CCAGCAGGTGACGGT</t>
   </si>
   <si>
-    <t>GCAGGTGACGGTACT</t>
-  </si>
-  <si>
-    <t>CAAAAGTGGGCAGCA</t>
-  </si>
-  <si>
     <t>Sampled Residues</t>
   </si>
   <si>
     <t>APR:FED:SK:KED</t>
   </si>
   <si>
-    <t>WT</t>
-  </si>
-  <si>
     <t>IS::SRT:VN</t>
   </si>
   <si>
@@ -101,24 +92,9 @@
     <t>I:A:S:V</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>Start Position</t>
   </si>
   <si>
-    <t>GTTGTCGTTCCATCT</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>CAAGAACAGCGTTAT</t>
-  </si>
-  <si>
     <t>Variable/Constant</t>
   </si>
   <si>
@@ -135,18 +111,6 @@
   </si>
   <si>
     <t>cccc</t>
-  </si>
-  <si>
-    <t>dddd</t>
-  </si>
-  <si>
-    <t>eeee</t>
-  </si>
-  <si>
-    <t>B2M</t>
-  </si>
-  <si>
-    <t>ffff</t>
   </si>
 </sst>
 </file>
@@ -525,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB6C40-4C96-8C45-B281-25BF0FCB6B5C}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A7" sqref="A7:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,16 +507,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -567,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -578,13 +542,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -592,10 +556,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>202</v>
@@ -613,10 +577,10 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -624,13 +588,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -638,10 +602,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>231</v>
@@ -659,10 +623,10 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -670,119 +634,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <v>242</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10">
-        <v>246</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sradak/Downloads/variable_extract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF62F3B0-49A5-E047-93AE-172840AD1629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413929A5-AACD-9846-9834-92DD267172B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="2720" windowWidth="30240" windowHeight="17040" xr2:uid="{D0C1844A-0301-C241-837A-D904870A691A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Length</t>
   </si>
@@ -65,12 +65,21 @@
     <t>CCAGCAGGTGACGGT</t>
   </si>
   <si>
+    <t>GCAGGTGACGGTACT</t>
+  </si>
+  <si>
+    <t>CAAAAGTGGGCAGCA</t>
+  </si>
+  <si>
     <t>Sampled Residues</t>
   </si>
   <si>
     <t>APR:FED:SK:KED</t>
   </si>
   <si>
+    <t>WT</t>
+  </si>
+  <si>
     <t>IS::SRT:VN</t>
   </si>
   <si>
@@ -92,9 +101,24 @@
     <t>I:A:S:V</t>
   </si>
   <si>
+    <t>W</t>
+  </si>
+  <si>
     <t>Start Position</t>
   </si>
   <si>
+    <t>GTTGTCGTTCCATCT</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>CAAGAACAGCGTTAT</t>
+  </si>
+  <si>
     <t>Variable/Constant</t>
   </si>
   <si>
@@ -111,6 +135,18 @@
   </si>
   <si>
     <t>cccc</t>
+  </si>
+  <si>
+    <t>dddd</t>
+  </si>
+  <si>
+    <t>eeee</t>
+  </si>
+  <si>
+    <t>B2M</t>
+  </si>
+  <si>
+    <t>ffff</t>
   </si>
 </sst>
 </file>
@@ -489,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB6C40-4C96-8C45-B281-25BF0FCB6B5C}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,16 +543,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -531,10 +567,10 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -542,13 +578,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -556,10 +592,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>202</v>
@@ -577,10 +613,10 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -588,13 +624,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -602,10 +638,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>231</v>
@@ -623,10 +659,10 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -634,13 +670,119 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>242</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>246</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sradak/Downloads/variable_extract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413929A5-AACD-9846-9834-92DD267172B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930A7834-8225-AA4A-B76B-7F6E9C70DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="2720" windowWidth="30240" windowHeight="17040" xr2:uid="{D0C1844A-0301-C241-837A-D904870A691A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Length</t>
   </si>
@@ -74,15 +74,6 @@
     <t>Sampled Residues</t>
   </si>
   <si>
-    <t>APR:FED:SK:KED</t>
-  </si>
-  <si>
-    <t>WT</t>
-  </si>
-  <si>
-    <t>IS::SRT:VN</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -108,9 +99,6 @@
   </si>
   <si>
     <t>GTTGTCGTTCCATCT</t>
-  </si>
-  <si>
-    <t>GT</t>
   </si>
   <si>
     <t>G</t>
@@ -528,7 +516,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J3" sqref="J3:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,16 +531,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -567,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -578,13 +566,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -592,10 +580,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>202</v>
@@ -613,10 +601,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -624,13 +609,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -638,10 +623,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>231</v>
@@ -659,10 +644,7 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -670,13 +652,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -684,13 +666,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -698,10 +680,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>242</v>
@@ -719,10 +701,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -730,13 +709,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -744,10 +723,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>246</v>
@@ -759,16 +738,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -776,13 +752,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sradak/Downloads/variable_extract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930A7834-8225-AA4A-B76B-7F6E9C70DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421D6AEF-6EB5-4B43-B7BC-AC78F40755E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="2720" windowWidth="30240" windowHeight="17040" xr2:uid="{D0C1844A-0301-C241-837A-D904870A691A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{D0C1844A-0301-C241-837A-D904870A691A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Length</t>
   </si>
@@ -86,27 +86,9 @@
     <t>WT Residue</t>
   </si>
   <si>
-    <t>A:F:S:K</t>
-  </si>
-  <si>
-    <t>I:A:S:V</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>Start Position</t>
   </si>
   <si>
-    <t>GTTGTCGTTCCATCT</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>CAAGAACAGCGTTAT</t>
-  </si>
-  <si>
     <t>Variable/Constant</t>
   </si>
   <si>
@@ -116,25 +98,73 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>bbbb</t>
-  </si>
-  <si>
-    <t>cccc</t>
-  </si>
-  <si>
-    <t>dddd</t>
-  </si>
-  <si>
-    <t>eeee</t>
-  </si>
-  <si>
     <t>B2M</t>
   </si>
   <si>
-    <t>ffff</t>
+    <t>SHSMRYFFTSVSRPGRGEPRFIAVGYVDDTQFVRFDSDAASQRMEPRAPWIEQEGPEYWDGETRKVKAHSQTHRVDLGTLRGAYQQSEAGSHTVQRMYGCDVGSDWRFLRGYHQYAYDGKDYIALKEDLRSWTAADMAAQTTKHKWEAAHVAEQLRAYLEGTCVEWLRRYLENGKETLQRTDAPKTHMTHHAVSDHEATL</t>
+  </si>
+  <si>
+    <t>LSFYPAEITLTWQRDGEDQTQDTEL</t>
+  </si>
+  <si>
+    <t>PAGDGT</t>
+  </si>
+  <si>
+    <t>QKWAAVVVPSGQEQRYTCHVQHEGLPKPLTLRWEPSSQP</t>
+  </si>
+  <si>
+    <t>R:C:W:A</t>
+  </si>
+  <si>
+    <t>V:E:T:R</t>
+  </si>
+  <si>
+    <t>VT:ED:T:VIY</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>FY</t>
+  </si>
+  <si>
+    <t>IQRTPK</t>
+  </si>
+  <si>
+    <t>VYSRHPAENGKSNFLNCYVSGFHPSDIEVDLLKNGERIEKVEHSDLSFSKDWSFYLL</t>
+  </si>
+  <si>
+    <t>YTEFTPTEKDEYACRVNHVTLSQPKIVKWDRDM</t>
+  </si>
+  <si>
+    <t>IV:QYL</t>
+  </si>
+  <si>
+    <t>I:Q</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>YAV</t>
+  </si>
+  <si>
+    <t>ATGTCTTGAATAAAC</t>
+  </si>
+  <si>
+    <t>TTTAGGAGTTCTTTG</t>
+  </si>
+  <si>
+    <t>AGTAAATTCAGTATA</t>
+  </si>
+  <si>
+    <t>CAACAAATAGAAAGA</t>
+  </si>
+  <si>
+    <t>RT:C:WH:AV</t>
   </si>
 </sst>
 </file>
@@ -513,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAB6C40-4C96-8C45-B281-25BF0FCB6B5C}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -566,13 +596,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -580,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -601,7 +631,10 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -609,13 +642,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -623,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -644,7 +677,10 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -652,13 +688,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -666,12 +702,30 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>241</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
       </c>
       <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -680,28 +734,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8">
-        <v>242</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -709,10 +748,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
         <v>30</v>
@@ -723,28 +762,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -752,12 +794,58 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
         <v>31</v>
       </c>
-      <c r="I11" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>66</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
         <v>32</v>
       </c>
     </row>
